--- a/notebooks/AIRE/input/AIRE_APS1_individuals.xlsx
+++ b/notebooks/AIRE/input/AIRE_APS1_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/AIRE/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92884477-8394-CB46-9EC4-172794EADD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08054AE9-C907-2242-9622-1810FDF3F616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="3980" windowWidth="33000" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15200" yWindow="5020" windowWidth="30240" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="299">
   <si>
     <t>PMID</t>
   </si>
@@ -492,13 +492,451 @@
   </si>
   <si>
     <t>c.206A&gt;C</t>
+  </si>
+  <si>
+    <t>PMID:19758376</t>
+  </si>
+  <si>
+    <t>Novel and recurrent mutations in the AIRE gene of autoimmune polyendocrinopathy syndrome type 1 (APS1) patients</t>
+  </si>
+  <si>
+    <t>Family 1 individual III-9</t>
+  </si>
+  <si>
+    <t>Family 1 individual III-13</t>
+  </si>
+  <si>
+    <t>Family 1 individual IV-1</t>
+  </si>
+  <si>
+    <t>Family 1 individual IV-9</t>
+  </si>
+  <si>
+    <t>Family 2 individual V-2</t>
+  </si>
+  <si>
+    <t>Family 2 individual V-3</t>
+  </si>
+  <si>
+    <t>Family 2 individual V-4</t>
+  </si>
+  <si>
+    <t>Family 2 individual V-5</t>
+  </si>
+  <si>
+    <t>Family 2 individual V-11</t>
+  </si>
+  <si>
+    <t>Family 3 individual II-5</t>
+  </si>
+  <si>
+    <t>Family 4 individual II-1</t>
+  </si>
+  <si>
+    <t>Family 5 individual II-1</t>
+  </si>
+  <si>
+    <t>Family 6 individual II-1</t>
+  </si>
+  <si>
+    <t>c.1236_1239dup</t>
+  </si>
+  <si>
+    <t>NP_000374.1:p.(Leu414GlyfsTer11), reported as 1236 1237insGCCG</t>
+  </si>
+  <si>
+    <t>refused testing, assumed to have same variants</t>
+  </si>
+  <si>
+    <t>c.93_94insT</t>
+  </si>
+  <si>
+    <t>NP_000374.1:p.(Leu32SerfsTer3)</t>
+  </si>
+  <si>
+    <t>c.205_208dup</t>
+  </si>
+  <si>
+    <t>NM_000383.4(AIRE):c.205_208dup (p.Asp70fs), reported as 1236 1237insGCCG</t>
+  </si>
+  <si>
+    <t>c.1A&gt;G</t>
+  </si>
+  <si>
+    <t>NP_000374.1:p.(M1?)</t>
+  </si>
+  <si>
+    <t>c.845dup</t>
+  </si>
+  <si>
+    <t>NP_000374.1:p.(Leu283SerfsTer6)</t>
+  </si>
+  <si>
+    <t>Neonatal onset</t>
+  </si>
+  <si>
+    <t>P15Y</t>
+  </si>
+  <si>
+    <t>Infantile onset</t>
+  </si>
+  <si>
+    <t>P35Y</t>
+  </si>
+  <si>
+    <t>P10M</t>
+  </si>
+  <si>
+    <t>Decreased circulating parathyroid hormone level</t>
+  </si>
+  <si>
+    <t>HP:0031817</t>
+  </si>
+  <si>
+    <t>Hypothyroidism</t>
+  </si>
+  <si>
+    <t>HP:0000821</t>
+  </si>
+  <si>
+    <t>Alopecia universalis</t>
+  </si>
+  <si>
+    <t>HP:0002289</t>
+  </si>
+  <si>
+    <t>Nephrocalcinosis</t>
+  </si>
+  <si>
+    <t>HP:0000121</t>
+  </si>
+  <si>
+    <t>Celiac disease</t>
+  </si>
+  <si>
+    <t>HP:0002608</t>
+  </si>
+  <si>
+    <t>Onychomycosis</t>
+  </si>
+  <si>
+    <t>HP:0012203</t>
+  </si>
+  <si>
+    <t>Iridocyclitis</t>
+  </si>
+  <si>
+    <t>HP:0001094</t>
+  </si>
+  <si>
+    <t>Antiparietal cell antibody positivity</t>
+  </si>
+  <si>
+    <t>HP:6000343</t>
+  </si>
+  <si>
+    <t>Anti-GAD65 antibody</t>
+  </si>
+  <si>
+    <t>HP:5000011</t>
+  </si>
+  <si>
+    <t>Elevated circulating thyroid-stimulating hormone concentration</t>
+  </si>
+  <si>
+    <t>HP:0002925</t>
+  </si>
+  <si>
+    <t>Anti-thyroglobulin antibody positivity</t>
+  </si>
+  <si>
+    <t>HP:0032069</t>
+  </si>
+  <si>
+    <t>Anti-thyroid peroxidase antibody positivity</t>
+  </si>
+  <si>
+    <t>HP:0025379</t>
+  </si>
+  <si>
+    <t>Anti-reticulin antibody positivity</t>
+  </si>
+  <si>
+    <t>HP:4000030</t>
+  </si>
+  <si>
+    <t>Anti-endomysial antibody positivity</t>
+  </si>
+  <si>
+    <t>HP:0033637</t>
+  </si>
+  <si>
+    <t>Anti-tissue transglutaminase antibody positivity</t>
+  </si>
+  <si>
+    <t>HP:0033563</t>
+  </si>
+  <si>
+    <t>PMID:19807739</t>
+  </si>
+  <si>
+    <t>Two novel AIRE mutations in autoimmune polyendocrinopathy-candidiasis-ectodermal dystrophy (APECED) among Indians</t>
+  </si>
+  <si>
+    <t>Patient 1</t>
+  </si>
+  <si>
+    <t>Patient 2</t>
+  </si>
+  <si>
+    <t>Patient 3</t>
+  </si>
+  <si>
+    <t>Patient 4</t>
+  </si>
+  <si>
+    <t>Patient 5</t>
+  </si>
+  <si>
+    <t>Patient 6</t>
+  </si>
+  <si>
+    <t>Patient 7</t>
+  </si>
+  <si>
+    <t>Patient 8</t>
+  </si>
+  <si>
+    <t>Patient 9</t>
+  </si>
+  <si>
+    <t>P24Y</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Nail pits</t>
+  </si>
+  <si>
+    <t>HP:0001803</t>
+  </si>
+  <si>
+    <t>Chronic sinusitis</t>
+  </si>
+  <si>
+    <t>HP:0011109</t>
+  </si>
+  <si>
+    <t>Nasal polyposis</t>
+  </si>
+  <si>
+    <t>HP:0100582</t>
+  </si>
+  <si>
+    <t>Recurrent otitis media</t>
+  </si>
+  <si>
+    <t>HP:0000403</t>
+  </si>
+  <si>
+    <t>Hypoplastic spleen</t>
+  </si>
+  <si>
+    <t>HP:0006270</t>
+  </si>
+  <si>
+    <t>Sepsis</t>
+  </si>
+  <si>
+    <t>HP:0100806</t>
+  </si>
+  <si>
+    <t>Anti-21-hydroxylase antibody positivity</t>
+  </si>
+  <si>
+    <t>HP:0034071</t>
+  </si>
+  <si>
+    <t>Anti-side-chain cleavage enzyme antibody positivity</t>
+  </si>
+  <si>
+    <t>HP:0034055</t>
+  </si>
+  <si>
+    <t>c.239T&gt;G</t>
+  </si>
+  <si>
+    <t>NP_000374.1:p.(Val80Gly)</t>
+  </si>
+  <si>
+    <t>c.906T&gt;A</t>
+  </si>
+  <si>
+    <t>NP_000374.1:p.(Cys302Ter)</t>
+  </si>
+  <si>
+    <t>NP_000374.1:p.(Arg257Ter)</t>
+  </si>
+  <si>
+    <t>c.415C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_000374.1:p.(Arg139Ter)</t>
+  </si>
+  <si>
+    <t>NP_000374.1:p.(Leu323SerfsTer51); reported as 967_979del13</t>
+  </si>
+  <si>
+    <t>PMID:22024611</t>
+  </si>
+  <si>
+    <t>Autoimmune polyendocrinopathy-candidiasis-ectodermal-dystrophy (APECED) in Sicily: confirmation that R203X is the peculiar AIRE gene mutation</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>P27Y</t>
+  </si>
+  <si>
+    <t>P38Y</t>
+  </si>
+  <si>
+    <t>P32Y</t>
+  </si>
+  <si>
+    <t>NM_000383.4(AIRE):c.607C&gt;T (p.Arg203Ter)</t>
+  </si>
+  <si>
+    <t>NM_000383.4(AIRE):c.415C&gt;T (p.Arg139Ter)</t>
+  </si>
+  <si>
+    <t>NM_000383.4(AIRE):c.769C&gt;T (p.Arg257Ter)</t>
+  </si>
+  <si>
+    <t>Patchy alopecia</t>
+  </si>
+  <si>
+    <t>HP:0002232</t>
+  </si>
+  <si>
+    <t>Graves disease</t>
+  </si>
+  <si>
+    <t>HP:0100647</t>
+  </si>
+  <si>
+    <t>P25Y</t>
+  </si>
+  <si>
+    <t>Nail dystrophy</t>
+  </si>
+  <si>
+    <t>HP:0008404</t>
+  </si>
+  <si>
+    <t>Anti-thyroid-stimulating hormone receptor antibody positivity</t>
+  </si>
+  <si>
+    <t>HP:0034189</t>
+  </si>
+  <si>
+    <t>c.607C&gt;T</t>
+  </si>
+  <si>
+    <t>PMID:18616706</t>
+  </si>
+  <si>
+    <t>Evaluation of the autoimmune regulator (AIRE) gene mutations in a cohort of Italian patients with autoimmune-polyendocrinopathy-candidiasis-ectodermal-dystrophy (APECED) and in their relatives</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>Case 7</t>
+  </si>
+  <si>
+    <t>Case 13</t>
+  </si>
+  <si>
+    <t>Case 15</t>
+  </si>
+  <si>
+    <t>Case 17</t>
+  </si>
+  <si>
+    <t>Case 18</t>
+  </si>
+  <si>
+    <t>Case 19</t>
+  </si>
+  <si>
+    <t>Case 20</t>
+  </si>
+  <si>
+    <t>Case 21</t>
+  </si>
+  <si>
+    <t>Case 22</t>
+  </si>
+  <si>
+    <t>Case 23</t>
+  </si>
+  <si>
+    <t>Case 24</t>
+  </si>
+  <si>
+    <t>Some variants mentioned in this paper could not be mapped to valid HGVS and the corresponding cases were omitted</t>
+  </si>
+  <si>
+    <t>P58Y</t>
+  </si>
+  <si>
+    <t>P33Y</t>
+  </si>
+  <si>
+    <t>P43Y</t>
+  </si>
+  <si>
+    <t>P28Y</t>
+  </si>
+  <si>
+    <t>P18Y</t>
+  </si>
+  <si>
+    <t>c.232T&gt;C</t>
+  </si>
+  <si>
+    <t>NM_000383.4(AIRE):c.232T&gt;C (p.Trp78Arg)</t>
+  </si>
+  <si>
+    <t>c.1072C&gt;T</t>
+  </si>
+  <si>
+    <t>NM_000383.4(AIRE):c.1072C&gt;T (p.Gln358Ter)</t>
+  </si>
+  <si>
+    <t>Seizure</t>
+  </si>
+  <si>
+    <t>HP:0001250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +957,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -556,7 +1007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -565,6 +1016,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,20 +1325,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS19"/>
+  <dimension ref="A1:BU61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AJ1" sqref="AJ1"/>
-      <selection pane="bottomLeft" activeCell="AG19" sqref="AG19"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="19" max="24" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="27" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:73" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,88 +1396,172 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="BD1" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="BF1" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="BK1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:73" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1075,88 +1617,172 @@
         <v>50</v>
       </c>
       <c r="S2" t="s">
+        <v>189</v>
+      </c>
+      <c r="T2" t="s">
+        <v>264</v>
+      </c>
+      <c r="U2" t="s">
         <v>51</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>52</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>53</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB2" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG2" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AH2" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AI2" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AJ2" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AK2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL2" t="s">
         <v>145</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AM2" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AN2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO2" t="s">
         <v>149</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
         <v>61</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AQ2" t="s">
         <v>62</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AR2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS2" t="s">
         <v>63</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AT2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU2" t="s">
         <v>64</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AV2" t="s">
         <v>65</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AW2" t="s">
         <v>66</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AX2" t="s">
         <v>67</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AY2" t="s">
         <v>68</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AZ2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA2" t="s">
         <v>69</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="BB2" t="s">
+        <v>266</v>
+      </c>
+      <c r="BC2" t="s">
         <v>70</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="BD2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>232</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH2" t="s">
         <v>126</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BI2" t="s">
         <v>128</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BJ2" t="s">
         <v>147</v>
       </c>
+      <c r="BK2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>271</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:73" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1205,29 +1831,30 @@
       <c r="Q3" t="s">
         <v>49</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AD3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" t="s">
         <v>91</v>
       </c>
-      <c r="AF3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS3" t="s">
+      <c r="AO3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:73" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1276,29 +1903,30 @@
       <c r="R4" t="s">
         <v>124</v>
       </c>
-      <c r="Z4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AG4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AD4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" t="s">
         <v>121</v>
       </c>
-      <c r="AF4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS4" t="s">
+      <c r="AO4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:73" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1344,26 +1972,27 @@
       <c r="Q5" t="s">
         <v>49</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AD5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS5" t="s">
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:73" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1409,26 +2038,27 @@
       <c r="Q6" t="s">
         <v>49</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AI6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AD6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS6" t="s">
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:73" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1474,26 +2104,27 @@
       <c r="Q7" t="s">
         <v>49</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AD7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE7" t="s">
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM7" t="s">
         <v>107</v>
       </c>
-      <c r="AF7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS7" t="s">
+      <c r="AO7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:73" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1539,32 +2170,33 @@
       <c r="Q8" t="s">
         <v>49</v>
       </c>
-      <c r="Z8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AG8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AJ8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS8" t="s">
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1613,29 +2245,30 @@
       <c r="R9" t="s">
         <v>124</v>
       </c>
-      <c r="Z9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AG9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AD9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS9" t="s">
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -1681,29 +2314,30 @@
       <c r="Q10" t="s">
         <v>49</v>
       </c>
-      <c r="Z10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AG10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AD10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS10" t="s">
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1755,38 +2389,39 @@
       <c r="R11" t="s">
         <v>124</v>
       </c>
-      <c r="Y11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AB11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AJ11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AD11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE11" t="s">
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM11" t="s">
         <v>113</v>
       </c>
-      <c r="AF11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS11" t="s">
+      <c r="AO11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -1835,26 +2470,27 @@
       <c r="Q12" t="s">
         <v>49</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AI12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AJ12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AD12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS12" t="s">
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -1903,35 +2539,36 @@
       <c r="Q13" t="s">
         <v>49</v>
       </c>
-      <c r="Z13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB13" s="3" t="s">
+      <c r="AG13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI13" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AC13" s="3" t="s">
+      <c r="AJ13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AD13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE13" t="s">
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM13" t="s">
         <v>122</v>
       </c>
-      <c r="AF13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS13" t="s">
+      <c r="AO13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1977,32 +2614,33 @@
       <c r="Q14" t="s">
         <v>49</v>
       </c>
-      <c r="Y14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AB14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AJ14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM14" t="s">
         <v>121</v>
       </c>
-      <c r="AF14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS14" t="s">
+      <c r="AO14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -2051,29 +2689,30 @@
       <c r="Q15" t="s">
         <v>49</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AI15" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AJ15" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS15" t="s">
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -2119,26 +2758,27 @@
       <c r="Q16" t="s">
         <v>49</v>
       </c>
-      <c r="AB16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AI16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AD16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS16" t="s">
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -2184,29 +2824,30 @@
       <c r="Q17" t="s">
         <v>49</v>
       </c>
-      <c r="AB17" s="3" t="s">
+      <c r="AI17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AJ17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE17" t="s">
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM17" t="s">
         <v>123</v>
       </c>
-      <c r="AF17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS17" t="s">
+      <c r="AO17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -2252,26 +2893,27 @@
       <c r="Q18" t="s">
         <v>49</v>
       </c>
-      <c r="AB18" s="3" t="s">
+      <c r="AI18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AC18" s="3" t="s">
+      <c r="AJ18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS18" t="s">
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -2320,30 +2962,4434 @@
       <c r="Q19" t="s">
         <v>49</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Z19" t="s">
         <v>109</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AB19" t="s">
         <v>109</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AH19" t="s">
         <v>109</v>
       </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AJ19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AM19" t="s">
         <v>150</v>
       </c>
-      <c r="AF19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS19" t="s">
+      <c r="AO19" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ19" t="s">
         <v>109</v>
       </c>
+    </row>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="W20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR20" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="W21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR21" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="T22" s="4"/>
+      <c r="W22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR22" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>49</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="W23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR23" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>49</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="W24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR24" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>49</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="W25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR25" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>49</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T26" s="4"/>
+      <c r="W26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR26" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T27" s="4"/>
+      <c r="W27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR27" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>49</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="T28" s="4"/>
+      <c r="W28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR28" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>49</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T29" s="4"/>
+      <c r="W29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR29" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>49</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T30" s="4"/>
+      <c r="W30" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR30" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>49</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="T31" s="4"/>
+      <c r="W31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK31" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR31" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>49</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T32" s="4"/>
+      <c r="W32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK32" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR32" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N33" t="s">
+        <v>225</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>49</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF33" s="4"/>
+      <c r="AH33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ33" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT33" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N34" t="s">
+        <v>91</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>49</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF34" s="4"/>
+      <c r="AH34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT34" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N35" t="s">
+        <v>90</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>49</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF35" s="4"/>
+      <c r="AH35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT35" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
+        <v>129</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N36" t="s">
+        <v>97</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>49</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF36" s="4"/>
+      <c r="AH36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM36" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT36" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" t="s">
+        <v>248</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N37" t="s">
+        <v>225</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>49</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF37" s="4"/>
+      <c r="AH37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ37" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM37" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN37" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO37" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS37" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT37" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N38" t="s">
+        <v>103</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>49</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF38" s="4"/>
+      <c r="AH38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT38" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>49</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF39" s="4"/>
+      <c r="AH39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH39" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL39" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM39" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS39" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT39" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N40" t="s">
+        <v>117</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>49</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF40" s="4"/>
+      <c r="AH40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BO40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BS40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BT40" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N41" t="s">
+        <v>180</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>49</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF41" s="4"/>
+      <c r="AH41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT41" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L42" t="s">
+        <v>260</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>49</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S42" t="s">
+        <v>124</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA42" s="5"/>
+      <c r="AD42" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BO42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU42" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>251</v>
+      </c>
+      <c r="B43" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L43" t="s">
+        <v>261</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>49</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA43" s="5"/>
+      <c r="AD43" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU43" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L44" t="s">
+        <v>262</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>49</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA44" s="5"/>
+      <c r="AD44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM44" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BA44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU44" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B45" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>49</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y45" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA45" s="5"/>
+      <c r="AD45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS45" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU45" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" t="s">
+        <v>287</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="X46" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM46" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY46" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB46" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL46" s="3"/>
+    </row>
+    <row r="47" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>49</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="X47" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ47" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM47" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL47" s="3"/>
+    </row>
+    <row r="48" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>49</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="X48" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR48" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS48" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL48" s="3"/>
+    </row>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>49</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ49" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM49" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY49" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL49" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>49</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="X50" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY50" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB50" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL50" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B51" t="s">
+        <v>274</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>49</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="X51" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM51" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY51" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB51" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL51" s="3"/>
+    </row>
+    <row r="52" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>49</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X52" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY52" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB52" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL52" s="3"/>
+    </row>
+    <row r="53" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>49</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X53" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL53" s="3"/>
+    </row>
+    <row r="54" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I54" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>49</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X54" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ54" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM54" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL54" s="3"/>
+    </row>
+    <row r="55" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55" t="s">
+        <v>274</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>49</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X55" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL55" s="3"/>
+    </row>
+    <row r="56" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>49</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="X56" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY56" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB56" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL56" s="3"/>
+    </row>
+    <row r="57" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>49</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="X57" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM57" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL57" s="3"/>
+    </row>
+    <row r="58" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" t="s">
+        <v>44</v>
+      </c>
+      <c r="I58" t="s">
+        <v>45</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>49</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X58" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM58" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY58" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB58" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL58" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59" t="s">
+        <v>274</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>49</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X59" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ59" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL59" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>49</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X60" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM60" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY60" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB60" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL60" s="3"/>
+    </row>
+    <row r="61" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="BH61" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
